--- a/ZSS/resources/Purva Vihar/FY2014-15/04-April-2014.xlsx
+++ b/ZSS/resources/Purva Vihar/FY2014-15/04-April-2014.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arathod\Desktop\Purva Vihar\FY2014-15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspaces\PurvaVihar\ACP_PV\ZSS\resources\Purva Vihar\FY2014-15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="A-Wing" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="86">
   <si>
     <t>Name of Flat Holder</t>
   </si>
@@ -558,9 +558,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">      /04/14</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Clear Dues to Avail </t>
     </r>
@@ -614,6 +611,12 @@
   </si>
   <si>
     <t>राजगुरु जी. एच.</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Cheque</t>
   </si>
 </sst>
 </file>
@@ -1037,6 +1040,24 @@
   </cellStyles>
   <dxfs count="37">
     <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
     </dxf>
     <dxf>
@@ -1104,24 +1125,6 @@
       <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1206,62 +1209,64 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="AWing" displayName="AWing" ref="A8:L27" totalsRowCount="1" headerRowDxfId="36">
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="AWing" displayName="AWing" ref="A8:M27" totalsRowCount="1" headerRowDxfId="36">
+  <tableColumns count="13">
     <tableColumn id="1" name="Flat No." totalsRowLabel="Total" dataDxfId="35"/>
     <tableColumn id="2" name="Name of Flat Holder" totalsRowFunction="count" dataDxfId="34"/>
-    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="5"/>
-    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="4"/>
-    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="3">
+    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="11"/>
+    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="10"/>
+    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="9">
       <calculatedColumnFormula>AWing[[#This Row],[Last Month''s Balance]]+AWing[[#This Row],[Current Month Balance]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="2"/>
-    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="1"/>
-    <tableColumn id="11" name="Remaining Balance" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="0">
+    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="8"/>
+    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="7"/>
+    <tableColumn id="11" name="Remaining Balance" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="6">
       <calculatedColumnFormula>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Date" dataDxfId="27"/>
     <tableColumn id="13" name="Receipt No." dataDxfId="26"/>
     <tableColumn id="9" name="Payer's Sign"/>
     <tableColumn id="10" name="थकबाकी न देण्याचे कारण "/>
+    <tableColumn id="12" name="Mode"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="BWing" displayName="BWing" ref="A8:L27" totalsRowCount="1" headerRowDxfId="25">
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="BWing" displayName="BWing" ref="A8:M27" totalsRowCount="1" headerRowDxfId="25">
+  <tableColumns count="13">
     <tableColumn id="1" name="Flat No." totalsRowLabel="Total" dataDxfId="24"/>
     <tableColumn id="2" name="Name of Flat Holder" totalsRowFunction="count" dataDxfId="23"/>
-    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="17">
+    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="5"/>
+    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="4"/>
+    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="3">
       <calculatedColumnFormula>BWing[[#This Row],[Current Month Balance]]+BWing[[#This Row],[Last Month''s Balance]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="13"/>
-    <tableColumn id="11" name="Remaining Balance" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11">
+    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="2"/>
+    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="1"/>
+    <tableColumn id="11" name="Remaining Balance" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="0">
       <calculatedColumnFormula>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Date" dataDxfId="10"/>
-    <tableColumn id="13" name="Receipt No." dataDxfId="9"/>
+    <tableColumn id="8" name="Date" dataDxfId="16"/>
+    <tableColumn id="13" name="Receipt No." dataDxfId="15"/>
     <tableColumn id="9" name="Payer's Sign"/>
     <tableColumn id="10" name="थकबाकी न देण्याचे कारण "/>
+    <tableColumn id="12" name="Mode"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table1" displayName="Table1" ref="B4:E14" totalsRowCount="1" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table1" displayName="Table1" ref="B4:E14" totalsRowCount="1" headerRowDxfId="14">
   <autoFilter ref="B4:E13"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Item" totalsRowLabel="Total"/>
     <tableColumn id="3" name="Transaction Type" totalsRowFunction="custom">
       <totalsRowFormula>SUBTOTAL(103,Table1[Transaction Type])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="Amount" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Currency"/>
+    <tableColumn id="2" name="Amount" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Currency"/>
     <tableColumn id="4" name="Additional"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1555,10 +1560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K2"/>
+    <sheetView view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1577,7 +1582,7 @@
     <col min="12" max="12" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="26" t="s">
         <v>10</v>
       </c>
@@ -1591,7 +1596,7 @@
       <c r="J1" s="27"/>
       <c r="K1" s="28"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1605,7 +1610,7 @@
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
       <c r="D3" s="30" t="s">
         <v>36</v>
@@ -1618,7 +1623,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
         <v>18</v>
       </c>
@@ -1632,7 +1637,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C5" s="41" t="s">
         <v>80</v>
       </c>
@@ -1642,9 +1647,9 @@
       <c r="G5" s="42"/>
       <c r="H5" s="43"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -1656,7 +1661,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -1693,8 +1698,11 @@
       <c r="L8" s="20" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -1721,12 +1729,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>3700</v>
       </c>
-      <c r="I9" s="19" t="s">
-        <v>81</v>
+      <c r="I9" s="19">
+        <v>41747</v>
       </c>
       <c r="J9" s="22"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2</v>
       </c>
@@ -1753,12 +1764,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>350</v>
       </c>
-      <c r="I10" s="19" t="s">
-        <v>81</v>
+      <c r="I10" s="19">
+        <v>41747</v>
       </c>
       <c r="J10" s="22"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -1785,12 +1799,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>80</v>
       </c>
-      <c r="I11" s="19" t="s">
-        <v>81</v>
+      <c r="I11" s="19">
+        <v>41752</v>
       </c>
       <c r="J11" s="22"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -1817,12 +1834,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I12" s="19" t="s">
-        <v>81</v>
+      <c r="I12" s="19">
+        <v>41752</v>
       </c>
       <c r="J12" s="22"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -1849,13 +1869,16 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I13" s="19" t="s">
-        <v>81</v>
+      <c r="I13" s="19">
+        <v>41752</v>
       </c>
       <c r="J13" s="22"/>
       <c r="L13" s="23"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -1882,12 +1905,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I14" s="19" t="s">
-        <v>81</v>
+      <c r="I14" s="19">
+        <v>41747</v>
       </c>
       <c r="J14" s="22"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>15</v>
       </c>
@@ -1914,15 +1940,18 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-2200</v>
       </c>
-      <c r="I15" s="19" t="s">
-        <v>81</v>
+      <c r="I15" s="19">
+        <v>41758</v>
       </c>
       <c r="J15" s="22"/>
       <c r="L15" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>16</v>
       </c>
@@ -1949,12 +1978,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>311</v>
       </c>
-      <c r="I16" s="19" t="s">
-        <v>81</v>
+      <c r="I16" s="19">
+        <v>41747</v>
       </c>
       <c r="J16" s="22"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>17</v>
       </c>
@@ -1981,12 +2013,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I17" s="19" t="s">
-        <v>81</v>
+      <c r="I17" s="19">
+        <v>41754</v>
       </c>
       <c r="J17" s="22"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>18</v>
       </c>
@@ -2013,12 +2048,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I18" s="19" t="s">
-        <v>81</v>
+      <c r="I18" s="19">
+        <v>41747</v>
       </c>
       <c r="J18" s="22"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>23</v>
       </c>
@@ -2045,12 +2083,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>10</v>
       </c>
-      <c r="I19" s="19" t="s">
-        <v>81</v>
+      <c r="I19" s="19">
+        <v>41752</v>
       </c>
       <c r="J19" s="22"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>24</v>
       </c>
@@ -2058,31 +2099,34 @@
         <v>65</v>
       </c>
       <c r="C20" s="8">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="D20" s="8">
         <v>200</v>
       </c>
       <c r="E20" s="8">
         <f>AWing[[#This Row],[Last Month''s Balance]]+AWing[[#This Row],[Current Month Balance]]</f>
-        <v>650</v>
+        <v>620</v>
       </c>
       <c r="F20" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G20" s="8">
         <v>0</v>
       </c>
       <c r="H20" s="8">
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
-        <v>650</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>81</v>
+        <v>630</v>
+      </c>
+      <c r="I20" s="19">
+        <v>41759</v>
       </c>
       <c r="J20" s="22"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>25</v>
       </c>
@@ -2109,15 +2153,18 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-2200</v>
       </c>
-      <c r="I21" s="19" t="s">
-        <v>81</v>
+      <c r="I21" s="19">
+        <v>41758</v>
       </c>
       <c r="J21" s="22"/>
       <c r="L21" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>26</v>
       </c>
@@ -2144,12 +2191,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>30</v>
       </c>
-      <c r="I22" s="19" t="s">
-        <v>81</v>
+      <c r="I22" s="19">
+        <v>41747</v>
       </c>
       <c r="J22" s="22"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>31</v>
       </c>
@@ -2176,12 +2226,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>7360</v>
       </c>
-      <c r="I23" s="19" t="s">
-        <v>81</v>
+      <c r="I23" s="19">
+        <v>41747</v>
       </c>
       <c r="J23" s="22"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>32</v>
       </c>
@@ -2208,15 +2261,18 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-2200</v>
       </c>
-      <c r="I24" s="19" t="s">
-        <v>81</v>
+      <c r="I24" s="19">
+        <v>41758</v>
       </c>
       <c r="J24" s="22"/>
       <c r="L24" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>33</v>
       </c>
@@ -2243,44 +2299,50 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>7370</v>
       </c>
-      <c r="I25" s="19" t="s">
-        <v>81</v>
+      <c r="I25" s="19">
+        <v>41759</v>
       </c>
       <c r="J25" s="22"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>34</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C26" s="8">
-        <v>300</v>
+        <v>-300</v>
       </c>
       <c r="D26" s="8">
         <v>300</v>
       </c>
       <c r="E26" s="8">
         <f>AWing[[#This Row],[Last Month''s Balance]]+AWing[[#This Row],[Current Month Balance]]</f>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="F26" s="8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G26" s="8">
         <v>0</v>
       </c>
       <c r="H26" s="8">
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
-        <v>610</v>
-      </c>
-      <c r="I26" s="19" t="s">
-        <v>81</v>
+        <v>0</v>
+      </c>
+      <c r="I26" s="19">
+        <v>41747</v>
       </c>
       <c r="J26" s="22"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -2290,7 +2352,7 @@
       </c>
       <c r="C27" s="8">
         <f>SUBTOTAL(109,AWing[Last Month''s Balance])</f>
-        <v>18650</v>
+        <v>18020</v>
       </c>
       <c r="D27" s="8">
         <f>SUBTOTAL(109,AWing[Current Month Balance])</f>
@@ -2298,7 +2360,7 @@
       </c>
       <c r="E27" s="8">
         <f>SUBTOTAL(109,AWing[Total Balance])</f>
-        <v>22350</v>
+        <v>21720</v>
       </c>
       <c r="F27" s="8">
         <f>SUBTOTAL(109,AWing[Penalty])</f>
@@ -2310,10 +2372,10 @@
       </c>
       <c r="H27" s="8">
         <f>SUBTOTAL(109,AWing[Remaining Balance])</f>
-        <v>13871</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
         <v>38</v>
       </c>
@@ -2329,7 +2391,7 @@
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -2343,7 +2405,7 @@
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>31</v>
       </c>
@@ -2363,7 +2425,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="33"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>34</v>
       </c>
@@ -2407,10 +2469,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:K4"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10:M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2429,7 +2491,7 @@
     <col min="12" max="12" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="44" t="s">
         <v>10</v>
       </c>
@@ -2443,7 +2505,7 @@
       <c r="J1" s="44"/>
       <c r="K1" s="44"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2457,7 +2519,7 @@
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
       <c r="D3" s="30" t="s">
         <v>36</v>
@@ -2470,7 +2532,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
         <v>17</v>
       </c>
@@ -2484,7 +2546,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C5" s="41" t="s">
         <v>80</v>
       </c>
@@ -2494,9 +2556,9 @@
       <c r="G5" s="42"/>
       <c r="H5" s="43"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -2508,7 +2570,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -2545,8 +2607,11 @@
       <c r="L8" s="20" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -2573,12 +2638,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>290</v>
       </c>
-      <c r="I9" s="19" t="s">
-        <v>81</v>
+      <c r="I9" s="19">
+        <v>41747</v>
       </c>
       <c r="J9" s="22"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>4</v>
       </c>
@@ -2605,12 +2673,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>10</v>
       </c>
-      <c r="I10" s="19" t="s">
-        <v>81</v>
+      <c r="I10" s="19">
+        <v>41747</v>
       </c>
       <c r="J10" s="22"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>5</v>
       </c>
@@ -2637,12 +2708,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>40</v>
       </c>
-      <c r="I11" s="19" t="s">
-        <v>81</v>
+      <c r="I11" s="19">
+        <v>41747</v>
       </c>
       <c r="J11" s="22"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -2669,12 +2743,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-100</v>
       </c>
-      <c r="I12" s="19" t="s">
-        <v>81</v>
+      <c r="I12" s="19">
+        <v>41751</v>
       </c>
       <c r="J12" s="22"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -2701,12 +2778,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>420</v>
       </c>
-      <c r="I13" s="19" t="s">
-        <v>81</v>
+      <c r="I13" s="19">
+        <v>41759</v>
       </c>
       <c r="J13" s="22"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -2733,12 +2813,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>2440</v>
       </c>
-      <c r="I14" s="19" t="s">
-        <v>81</v>
+      <c r="I14" s="19">
+        <v>41759</v>
       </c>
       <c r="J14" s="22"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -2765,12 +2848,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I15" s="19" t="s">
-        <v>81</v>
+      <c r="I15" s="19">
+        <v>41755</v>
       </c>
       <c r="J15" s="22"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -2797,12 +2883,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I16" s="19" t="s">
-        <v>81</v>
+      <c r="I16" s="19">
+        <v>41747</v>
       </c>
       <c r="J16" s="22"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>19</v>
       </c>
@@ -2829,12 +2918,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>30</v>
       </c>
-      <c r="I17" s="19" t="s">
-        <v>81</v>
+      <c r="I17" s="19">
+        <v>41747</v>
       </c>
       <c r="J17" s="22"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>20</v>
       </c>
@@ -2861,12 +2953,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I18" s="19" t="s">
-        <v>81</v>
+      <c r="I18" s="19">
+        <v>41747</v>
       </c>
       <c r="J18" s="22"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>21</v>
       </c>
@@ -2893,12 +2988,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I19" s="19" t="s">
-        <v>81</v>
+      <c r="I19" s="19">
+        <v>41747</v>
       </c>
       <c r="J19" s="22"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>22</v>
       </c>
@@ -2925,14 +3023,17 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>720</v>
       </c>
-      <c r="I20" s="19" t="s">
-        <v>81</v>
+      <c r="I20" s="19">
+        <v>41751</v>
       </c>
       <c r="J20" s="22"/>
-      <c r="P20" s="12"/>
-      <c r="S20" s="12"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q20" s="12"/>
+      <c r="T20" s="12"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>27</v>
       </c>
@@ -2959,13 +3060,16 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>310</v>
       </c>
-      <c r="I21" s="19" t="s">
-        <v>81</v>
+      <c r="I21" s="19">
+        <v>41759</v>
       </c>
       <c r="J21" s="22"/>
-      <c r="P21" s="12"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q21" s="12"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>12</v>
       </c>
@@ -2992,12 +3096,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I22" s="19" t="s">
-        <v>81</v>
+      <c r="I22" s="19">
+        <v>41751</v>
       </c>
       <c r="J22" s="22"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -3024,12 +3131,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I23" s="19" t="s">
-        <v>81</v>
+      <c r="I23" s="19">
+        <v>41751</v>
       </c>
       <c r="J23" s="22"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>14</v>
       </c>
@@ -3056,12 +3166,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>540</v>
       </c>
-      <c r="I24" s="19" t="s">
-        <v>81</v>
+      <c r="I24" s="19">
+        <v>41757</v>
       </c>
       <c r="J24" s="22"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>15</v>
       </c>
@@ -3088,12 +3201,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I25" s="19" t="s">
-        <v>81</v>
+      <c r="I25" s="19">
+        <v>41757</v>
       </c>
       <c r="J25" s="22"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>30</v>
       </c>
@@ -3120,12 +3236,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I26" s="19" t="s">
-        <v>81</v>
+      <c r="I26" s="19">
+        <v>41747</v>
       </c>
       <c r="J26" s="22"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -3158,7 +3277,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
         <v>37</v>
       </c>
@@ -3174,7 +3293,7 @@
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -3188,7 +3307,7 @@
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
     </row>
-    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>31</v>
       </c>
@@ -3208,7 +3327,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="33"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>34</v>
       </c>

--- a/ZSS/resources/Purva Vihar/FY2014-15/04-April-2014.xlsx
+++ b/ZSS/resources/Purva Vihar/FY2014-15/04-April-2014.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspaces\PurvaVihar\ACP_PV\ZSS\resources\Purva Vihar\FY2014-15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arathod\Desktop\Purva Vihar\FY2014-15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="A-Wing" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="85">
   <si>
     <t>Name of Flat Holder</t>
   </si>
@@ -558,6 +558,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">      /04/14</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Clear Dues to Avail </t>
     </r>
@@ -611,12 +614,6 @@
   </si>
   <si>
     <t>राजगुरु जी. एच.</t>
-  </si>
-  <si>
-    <t>Mode</t>
-  </si>
-  <si>
-    <t>Cheque</t>
   </si>
 </sst>
 </file>
@@ -1040,24 +1037,6 @@
   </cellStyles>
   <dxfs count="37">
     <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
     </dxf>
     <dxf>
@@ -1125,6 +1104,24 @@
       <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1209,64 +1206,62 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="AWing" displayName="AWing" ref="A8:M27" totalsRowCount="1" headerRowDxfId="36">
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="AWing" displayName="AWing" ref="A8:L27" totalsRowCount="1" headerRowDxfId="36">
+  <tableColumns count="12">
     <tableColumn id="1" name="Flat No." totalsRowLabel="Total" dataDxfId="35"/>
     <tableColumn id="2" name="Name of Flat Holder" totalsRowFunction="count" dataDxfId="34"/>
-    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="11"/>
-    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="10"/>
-    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="9">
+    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="5"/>
+    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="4"/>
+    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="3">
       <calculatedColumnFormula>AWing[[#This Row],[Last Month''s Balance]]+AWing[[#This Row],[Current Month Balance]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="8"/>
-    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="7"/>
-    <tableColumn id="11" name="Remaining Balance" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="6">
+    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="2"/>
+    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="1"/>
+    <tableColumn id="11" name="Remaining Balance" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="0">
       <calculatedColumnFormula>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Date" dataDxfId="27"/>
     <tableColumn id="13" name="Receipt No." dataDxfId="26"/>
     <tableColumn id="9" name="Payer's Sign"/>
     <tableColumn id="10" name="थकबाकी न देण्याचे कारण "/>
-    <tableColumn id="12" name="Mode"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="BWing" displayName="BWing" ref="A8:M27" totalsRowCount="1" headerRowDxfId="25">
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="BWing" displayName="BWing" ref="A8:L27" totalsRowCount="1" headerRowDxfId="25">
+  <tableColumns count="12">
     <tableColumn id="1" name="Flat No." totalsRowLabel="Total" dataDxfId="24"/>
     <tableColumn id="2" name="Name of Flat Holder" totalsRowFunction="count" dataDxfId="23"/>
-    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="5"/>
-    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="4"/>
-    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="3">
+    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="17">
       <calculatedColumnFormula>BWing[[#This Row],[Current Month Balance]]+BWing[[#This Row],[Last Month''s Balance]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="2"/>
-    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="1"/>
-    <tableColumn id="11" name="Remaining Balance" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="0">
+    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="11" name="Remaining Balance" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11">
       <calculatedColumnFormula>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Date" dataDxfId="16"/>
-    <tableColumn id="13" name="Receipt No." dataDxfId="15"/>
+    <tableColumn id="8" name="Date" dataDxfId="10"/>
+    <tableColumn id="13" name="Receipt No." dataDxfId="9"/>
     <tableColumn id="9" name="Payer's Sign"/>
     <tableColumn id="10" name="थकबाकी न देण्याचे कारण "/>
-    <tableColumn id="12" name="Mode"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table1" displayName="Table1" ref="B4:E14" totalsRowCount="1" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table1" displayName="Table1" ref="B4:E14" totalsRowCount="1" headerRowDxfId="8">
   <autoFilter ref="B4:E13"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Item" totalsRowLabel="Total"/>
     <tableColumn id="3" name="Transaction Type" totalsRowFunction="custom">
       <totalsRowFormula>SUBTOTAL(103,Table1[Transaction Type])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="Amount" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Currency"/>
+    <tableColumn id="2" name="Amount" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Currency"/>
     <tableColumn id="4" name="Additional"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1560,10 +1555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1582,7 +1577,7 @@
     <col min="12" max="12" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="26" t="s">
         <v>10</v>
       </c>
@@ -1596,7 +1591,7 @@
       <c r="J1" s="27"/>
       <c r="K1" s="28"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1610,7 +1605,7 @@
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
       <c r="D3" s="30" t="s">
         <v>36</v>
@@ -1623,7 +1618,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
         <v>18</v>
       </c>
@@ -1637,7 +1632,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C5" s="41" t="s">
         <v>80</v>
       </c>
@@ -1647,9 +1642,9 @@
       <c r="G5" s="42"/>
       <c r="H5" s="43"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -1661,7 +1656,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="8" spans="1:13" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -1698,11 +1693,8 @@
       <c r="L8" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="M8" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -1729,15 +1721,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>3700</v>
       </c>
-      <c r="I9" s="19">
-        <v>41747</v>
+      <c r="I9" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="J9" s="22"/>
-      <c r="M9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2</v>
       </c>
@@ -1764,15 +1753,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>350</v>
       </c>
-      <c r="I10" s="19">
-        <v>41747</v>
+      <c r="I10" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="J10" s="22"/>
-      <c r="M10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -1799,15 +1785,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>80</v>
       </c>
-      <c r="I11" s="19">
-        <v>41752</v>
+      <c r="I11" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="J11" s="22"/>
-      <c r="M11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -1834,15 +1817,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I12" s="19">
-        <v>41752</v>
+      <c r="I12" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="J12" s="22"/>
-      <c r="M12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -1869,16 +1849,13 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I13" s="19">
-        <v>41752</v>
+      <c r="I13" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="J13" s="22"/>
       <c r="L13" s="23"/>
-      <c r="M13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -1905,15 +1882,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I14" s="19">
-        <v>41747</v>
+      <c r="I14" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="J14" s="22"/>
-      <c r="M14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>15</v>
       </c>
@@ -1940,18 +1914,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-2200</v>
       </c>
-      <c r="I15" s="19">
-        <v>41758</v>
+      <c r="I15" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="J15" s="22"/>
       <c r="L15" t="s">
         <v>78</v>
       </c>
-      <c r="M15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>16</v>
       </c>
@@ -1978,15 +1949,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>311</v>
       </c>
-      <c r="I16" s="19">
-        <v>41747</v>
+      <c r="I16" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="J16" s="22"/>
-      <c r="M16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>17</v>
       </c>
@@ -2013,15 +1981,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I17" s="19">
-        <v>41754</v>
+      <c r="I17" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="J17" s="22"/>
-      <c r="M17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>18</v>
       </c>
@@ -2048,15 +2013,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I18" s="19">
-        <v>41747</v>
+      <c r="I18" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="J18" s="22"/>
-      <c r="M18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>23</v>
       </c>
@@ -2083,15 +2045,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>10</v>
       </c>
-      <c r="I19" s="19">
-        <v>41752</v>
+      <c r="I19" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="J19" s="22"/>
-      <c r="M19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>24</v>
       </c>
@@ -2099,34 +2058,31 @@
         <v>65</v>
       </c>
       <c r="C20" s="8">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="D20" s="8">
         <v>200</v>
       </c>
       <c r="E20" s="8">
         <f>AWing[[#This Row],[Last Month''s Balance]]+AWing[[#This Row],[Current Month Balance]]</f>
-        <v>620</v>
+        <v>650</v>
       </c>
       <c r="F20" s="8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G20" s="8">
         <v>0</v>
       </c>
       <c r="H20" s="8">
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
-        <v>630</v>
-      </c>
-      <c r="I20" s="19">
-        <v>41759</v>
+        <v>650</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="J20" s="22"/>
-      <c r="M20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>25</v>
       </c>
@@ -2153,18 +2109,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-2200</v>
       </c>
-      <c r="I21" s="19">
-        <v>41758</v>
+      <c r="I21" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="J21" s="22"/>
       <c r="L21" t="s">
         <v>78</v>
       </c>
-      <c r="M21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>26</v>
       </c>
@@ -2191,15 +2144,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>30</v>
       </c>
-      <c r="I22" s="19">
-        <v>41747</v>
+      <c r="I22" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="J22" s="22"/>
-      <c r="M22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>31</v>
       </c>
@@ -2226,15 +2176,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>7360</v>
       </c>
-      <c r="I23" s="19">
-        <v>41747</v>
+      <c r="I23" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="J23" s="22"/>
-      <c r="M23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>32</v>
       </c>
@@ -2261,18 +2208,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-2200</v>
       </c>
-      <c r="I24" s="19">
-        <v>41758</v>
+      <c r="I24" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="J24" s="22"/>
       <c r="L24" t="s">
         <v>78</v>
       </c>
-      <c r="M24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>33</v>
       </c>
@@ -2299,50 +2243,44 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>7370</v>
       </c>
-      <c r="I25" s="19">
-        <v>41759</v>
+      <c r="I25" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="J25" s="22"/>
-      <c r="M25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>34</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C26" s="8">
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="D26" s="8">
         <v>300</v>
       </c>
       <c r="E26" s="8">
         <f>AWing[[#This Row],[Last Month''s Balance]]+AWing[[#This Row],[Current Month Balance]]</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F26" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G26" s="8">
         <v>0</v>
       </c>
       <c r="H26" s="8">
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="19">
-        <v>41747</v>
+        <v>610</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="J26" s="22"/>
-      <c r="M26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -2352,7 +2290,7 @@
       </c>
       <c r="C27" s="8">
         <f>SUBTOTAL(109,AWing[Last Month''s Balance])</f>
-        <v>18020</v>
+        <v>18650</v>
       </c>
       <c r="D27" s="8">
         <f>SUBTOTAL(109,AWing[Current Month Balance])</f>
@@ -2360,7 +2298,7 @@
       </c>
       <c r="E27" s="8">
         <f>SUBTOTAL(109,AWing[Total Balance])</f>
-        <v>21720</v>
+        <v>22350</v>
       </c>
       <c r="F27" s="8">
         <f>SUBTOTAL(109,AWing[Penalty])</f>
@@ -2372,10 +2310,10 @@
       </c>
       <c r="H27" s="8">
         <f>SUBTOTAL(109,AWing[Remaining Balance])</f>
-        <v>13241</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13871</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
         <v>38</v>
       </c>
@@ -2391,7 +2329,7 @@
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -2405,7 +2343,7 @@
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
     </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>31</v>
       </c>
@@ -2425,7 +2363,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="33"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>34</v>
       </c>
@@ -2469,10 +2407,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10:M26"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2491,7 +2429,7 @@
     <col min="12" max="12" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="44" t="s">
         <v>10</v>
       </c>
@@ -2505,7 +2443,7 @@
       <c r="J1" s="44"/>
       <c r="K1" s="44"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2519,7 +2457,7 @@
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
       <c r="D3" s="30" t="s">
         <v>36</v>
@@ -2532,7 +2470,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
         <v>17</v>
       </c>
@@ -2546,7 +2484,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C5" s="41" t="s">
         <v>80</v>
       </c>
@@ -2556,9 +2494,9 @@
       <c r="G5" s="42"/>
       <c r="H5" s="43"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -2570,7 +2508,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -2607,11 +2545,8 @@
       <c r="L8" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="M8" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -2638,15 +2573,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>290</v>
       </c>
-      <c r="I9" s="19">
-        <v>41747</v>
+      <c r="I9" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="J9" s="22"/>
-      <c r="M9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>4</v>
       </c>
@@ -2673,15 +2605,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>10</v>
       </c>
-      <c r="I10" s="19">
-        <v>41747</v>
+      <c r="I10" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="J10" s="22"/>
-      <c r="M10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>5</v>
       </c>
@@ -2708,15 +2637,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>40</v>
       </c>
-      <c r="I11" s="19">
-        <v>41747</v>
+      <c r="I11" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="J11" s="22"/>
-      <c r="M11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -2743,15 +2669,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-100</v>
       </c>
-      <c r="I12" s="19">
-        <v>41751</v>
+      <c r="I12" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="J12" s="22"/>
-      <c r="M12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -2778,15 +2701,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>420</v>
       </c>
-      <c r="I13" s="19">
-        <v>41759</v>
+      <c r="I13" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="J13" s="22"/>
-      <c r="M13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -2813,15 +2733,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>2440</v>
       </c>
-      <c r="I14" s="19">
-        <v>41759</v>
+      <c r="I14" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="J14" s="22"/>
-      <c r="M14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -2848,15 +2765,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I15" s="19">
-        <v>41755</v>
+      <c r="I15" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="J15" s="22"/>
-      <c r="M15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -2883,15 +2797,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I16" s="19">
-        <v>41747</v>
+      <c r="I16" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="J16" s="22"/>
-      <c r="M16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>19</v>
       </c>
@@ -2918,15 +2829,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>30</v>
       </c>
-      <c r="I17" s="19">
-        <v>41747</v>
+      <c r="I17" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="J17" s="22"/>
-      <c r="M17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>20</v>
       </c>
@@ -2953,15 +2861,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I18" s="19">
-        <v>41747</v>
+      <c r="I18" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="J18" s="22"/>
-      <c r="M18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>21</v>
       </c>
@@ -2988,15 +2893,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I19" s="19">
-        <v>41747</v>
+      <c r="I19" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="J19" s="22"/>
-      <c r="M19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>22</v>
       </c>
@@ -3023,17 +2925,14 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>720</v>
       </c>
-      <c r="I20" s="19">
-        <v>41751</v>
+      <c r="I20" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="J20" s="22"/>
-      <c r="M20" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q20" s="12"/>
-      <c r="T20" s="12"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P20" s="12"/>
+      <c r="S20" s="12"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>27</v>
       </c>
@@ -3060,16 +2959,13 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>310</v>
       </c>
-      <c r="I21" s="19">
-        <v>41759</v>
+      <c r="I21" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="J21" s="22"/>
-      <c r="M21" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q21" s="12"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P21" s="12"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>12</v>
       </c>
@@ -3096,15 +2992,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I22" s="19">
-        <v>41751</v>
+      <c r="I22" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="J22" s="22"/>
-      <c r="M22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -3131,15 +3024,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I23" s="19">
-        <v>41751</v>
+      <c r="I23" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="J23" s="22"/>
-      <c r="M23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>14</v>
       </c>
@@ -3166,15 +3056,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>540</v>
       </c>
-      <c r="I24" s="19">
-        <v>41757</v>
+      <c r="I24" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="J24" s="22"/>
-      <c r="M24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>15</v>
       </c>
@@ -3201,15 +3088,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I25" s="19">
-        <v>41757</v>
+      <c r="I25" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="J25" s="22"/>
-      <c r="M25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>30</v>
       </c>
@@ -3236,15 +3120,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I26" s="19">
-        <v>41747</v>
+      <c r="I26" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="J26" s="22"/>
-      <c r="M26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -3277,7 +3158,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
         <v>37</v>
       </c>
@@ -3293,7 +3174,7 @@
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -3307,7 +3188,7 @@
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
     </row>
-    <row r="31" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>31</v>
       </c>
@@ -3327,7 +3208,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="33"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>34</v>
       </c>
